--- a/data/annotations/new_annotation_structure_out/iteration_5/iteration_5_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_5/iteration_5_mistral-large-2411-3.xlsx
@@ -607,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1696,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3253,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3493,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
@@ -6830,13 +6830,13 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
